--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Characterization Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64283406-F2F5-4B4E-BE78-07CCC5432E84}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="6165" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Test Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Directions</t>
   </si>
   <si>
-    <t>Test Length</t>
-  </si>
-  <si>
     <t>Successful</t>
   </si>
   <si>
@@ -69,16 +66,79 @@
   </si>
   <si>
     <t>Heave</t>
+  </si>
+  <si>
+    <t>Surge</t>
+  </si>
+  <si>
+    <t>Test Length [s]</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>First emulator simulation. No issues</t>
+  </si>
+  <si>
+    <t>0.1 - 6</t>
+  </si>
+  <si>
+    <t>Frequencies [Hz]</t>
+  </si>
+  <si>
+    <t>Amplitudes [m]</t>
+  </si>
+  <si>
+    <t>Decay Fac [c]</t>
+  </si>
+  <si>
+    <t>Prelim 002</t>
+  </si>
+  <si>
+    <t>Sway</t>
+  </si>
+  <si>
+    <t>0.1-6</t>
+  </si>
+  <si>
+    <t>Prelim 003</t>
+  </si>
+  <si>
+    <t>Prelim 004</t>
+  </si>
+  <si>
+    <t>Surge, Sway</t>
+  </si>
+  <si>
+    <t>Prelim 005</t>
+  </si>
+  <si>
+    <t>Prelim 006</t>
+  </si>
+  <si>
+    <t>Surge, Heave</t>
+  </si>
+  <si>
+    <t>Prelim 007</t>
+  </si>
+  <si>
+    <t>Sway, Heave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,12 +492,15 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="103.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,24 +517,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>45320</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -479,13 +551,208 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>180</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -714,34 +981,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64283406-F2F5-4B4E-BE78-07CCC5432E84}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308686A6-8290-4E3A-B478-7B728DEBD9E9}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Test Name</t>
   </si>
   <si>
-    <t>Emulator or Real World</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Prelim 001</t>
   </si>
   <si>
-    <t>Emulator</t>
-  </si>
-  <si>
     <t>Heave</t>
   </si>
   <si>
@@ -98,31 +92,73 @@
     <t>Sway</t>
   </si>
   <si>
-    <t>0.1-6</t>
-  </si>
-  <si>
     <t>Prelim 003</t>
   </si>
   <si>
     <t>Prelim 004</t>
   </si>
   <si>
-    <t>Surge, Sway</t>
-  </si>
-  <si>
     <t>Prelim 005</t>
   </si>
   <si>
     <t>Prelim 006</t>
   </si>
   <si>
-    <t>Surge, Heave</t>
-  </si>
-  <si>
     <t>Prelim 007</t>
   </si>
   <si>
-    <t>Sway, Heave</t>
+    <t>Test Profile Name</t>
+  </si>
+  <si>
+    <t>Emulator File</t>
+  </si>
+  <si>
+    <t>Real World File</t>
+  </si>
+  <si>
+    <t>EM_01-6_2</t>
+  </si>
+  <si>
+    <t>TP001_010-6_2</t>
+  </si>
+  <si>
+    <t>TP002_005-2_1</t>
+  </si>
+  <si>
+    <t>TP003_005-2_1</t>
+  </si>
+  <si>
+    <t>TP004_005-2_1</t>
+  </si>
+  <si>
+    <t>0.05 - 2</t>
+  </si>
+  <si>
+    <t>TP005_005-2_1</t>
+  </si>
+  <si>
+    <t>Surge,Sway</t>
+  </si>
+  <si>
+    <t>TP006_005-2_1</t>
+  </si>
+  <si>
+    <t>Surge,Heave</t>
+  </si>
+  <si>
+    <t>TP007_005-2_1</t>
+  </si>
+  <si>
+    <t>Sway,Heave</t>
+  </si>
+  <si>
+    <t>Prelim 008</t>
+  </si>
+  <si>
+    <t>TP008_005-2_1</t>
+  </si>
+  <si>
+    <t>Surge, Sway, Heave</t>
   </si>
 </sst>
 </file>
@@ -164,9 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,249 +518,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>45320</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="F3">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
         <v>180</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
         <v>180</v>
       </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>180</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>180</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -733,26 +808,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -981,26 +1036,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1017,4 +1073,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308686A6-8290-4E3A-B478-7B728DEBD9E9}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0649169E-10A7-4A32-A5D1-783F14794691}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,49 +116,49 @@
     <t>Real World File</t>
   </si>
   <si>
-    <t>EM_01-6_2</t>
-  </si>
-  <si>
-    <t>TP001_010-6_2</t>
-  </si>
-  <si>
-    <t>TP002_005-2_1</t>
-  </si>
-  <si>
-    <t>TP003_005-2_1</t>
-  </si>
-  <si>
-    <t>TP004_005-2_1</t>
-  </si>
-  <si>
     <t>0.05 - 2</t>
   </si>
   <si>
-    <t>TP005_005-2_1</t>
-  </si>
-  <si>
     <t>Surge,Sway</t>
   </si>
   <si>
-    <t>TP006_005-2_1</t>
-  </si>
-  <si>
     <t>Surge,Heave</t>
   </si>
   <si>
-    <t>TP007_005-2_1</t>
-  </si>
-  <si>
     <t>Sway,Heave</t>
   </si>
   <si>
     <t>Prelim 008</t>
   </si>
   <si>
-    <t>TP008_005-2_1</t>
-  </si>
-  <si>
     <t>Surge, Sway, Heave</t>
+  </si>
+  <si>
+    <t>TP001-100000-106-2</t>
+  </si>
+  <si>
+    <t>TP002-100000-052-1</t>
+  </si>
+  <si>
+    <t>TP003-010000-052-1</t>
+  </si>
+  <si>
+    <t>TP004-001000-052-1</t>
+  </si>
+  <si>
+    <t>TP005-110000-052-1</t>
+  </si>
+  <si>
+    <t>TP006-101000-052-1</t>
+  </si>
+  <si>
+    <t>TP007-011000-052-1</t>
+  </si>
+  <si>
+    <t>TP008-111000-052-1</t>
+  </si>
+  <si>
+    <t>EM001-100000-106-2</t>
   </si>
 </sst>
 </file>
@@ -222,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -262,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -521,14 +521,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -536,6 +536,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,10 +589,10 @@
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2">
@@ -624,7 +625,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -636,7 +637,7 @@
         <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -650,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -662,7 +663,7 @@
         <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -676,7 +677,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -688,7 +689,7 @@
         <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -702,19 +703,19 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6">
         <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -728,19 +729,19 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -754,19 +755,19 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -777,7 +778,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -786,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -808,6 +809,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1036,27 +1057,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1073,23 +1093,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0649169E-10A7-4A32-A5D1-783F14794691}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1511232-CB4F-4C2C-BD45-1491CFF20C50}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="29580" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Test Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Prelim 001</t>
-  </si>
-  <si>
     <t>Heave</t>
   </si>
   <si>
@@ -86,27 +83,9 @@
     <t>Decay Fac [c]</t>
   </si>
   <si>
-    <t>Prelim 002</t>
-  </si>
-  <si>
     <t>Sway</t>
   </si>
   <si>
-    <t>Prelim 003</t>
-  </si>
-  <si>
-    <t>Prelim 004</t>
-  </si>
-  <si>
-    <t>Prelim 005</t>
-  </si>
-  <si>
-    <t>Prelim 006</t>
-  </si>
-  <si>
-    <t>Prelim 007</t>
-  </si>
-  <si>
     <t>Test Profile Name</t>
   </si>
   <si>
@@ -128,9 +107,6 @@
     <t>Sway,Heave</t>
   </si>
   <si>
-    <t>Prelim 008</t>
-  </si>
-  <si>
     <t>Surge, Sway, Heave</t>
   </si>
   <si>
@@ -159,6 +135,39 @@
   </si>
   <si>
     <t>EM001-100000-106-2</t>
+  </si>
+  <si>
+    <t>TP 001</t>
+  </si>
+  <si>
+    <t>TP002</t>
+  </si>
+  <si>
+    <t>TP 003</t>
+  </si>
+  <si>
+    <t>TP 004</t>
+  </si>
+  <si>
+    <t>TP 005</t>
+  </si>
+  <si>
+    <t>TP 006</t>
+  </si>
+  <si>
+    <t>TP 007</t>
+  </si>
+  <si>
+    <t>TP 008</t>
+  </si>
+  <si>
+    <t>TP 009</t>
+  </si>
+  <si>
+    <t>TP009-100000-016-1</t>
+  </si>
+  <si>
+    <t>0.01 - 6</t>
   </si>
 </sst>
 </file>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -563,16 +572,16 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" t="s">
         <v>4</v>
@@ -583,29 +592,29 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1">
         <v>45320</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>100</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -614,30 +623,30 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -648,22 +657,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -674,22 +683,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -700,22 +709,22 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
       <c r="H6">
         <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -726,22 +735,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
       <c r="H7">
         <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -752,22 +761,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
       </c>
       <c r="H8">
         <v>180</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -778,27 +787,53 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>180</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -809,26 +844,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1057,26 +1072,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1093,4 +1109,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1511232-CB4F-4C2C-BD45-1491CFF20C50}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C7F8B66-EA53-4B8B-B2BB-30E0EC7EC2FB}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>Test Name</t>
   </si>
@@ -168,6 +168,54 @@
   </si>
   <si>
     <t>0.01 - 6</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Input frequencies were too large to get meaningful data.</t>
+  </si>
+  <si>
+    <t>TP010-001000-0055-1</t>
+  </si>
+  <si>
+    <t>0.05 - 0.5</t>
+  </si>
+  <si>
+    <t>TP 010</t>
+  </si>
+  <si>
+    <t>TP 011</t>
+  </si>
+  <si>
+    <t>TP 012</t>
+  </si>
+  <si>
+    <t>0.005 - 5</t>
+  </si>
+  <si>
+    <t>Frequencies are too fast</t>
+  </si>
+  <si>
+    <t>TP 013</t>
+  </si>
+  <si>
+    <t>TP011-Su-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>TP012-He-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>TP013-Sw-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>4/18/24, 16:19</t>
+  </si>
+  <si>
+    <t>4/18/24, 16:25</t>
+  </si>
+  <si>
+    <t>4/18/24, 16:28</t>
   </si>
 </sst>
 </file>
@@ -228,6 +276,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,29 +579,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="103.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="103.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -629,7 +681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -655,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -681,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -707,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -733,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -759,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -785,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -811,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -830,11 +882,121 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -844,6 +1006,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1072,15 +1243,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1093,6 +1255,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1111,14 +1281,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
   <ds:schemaRefs>

--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C7F8B66-EA53-4B8B-B2BB-30E0EC7EC2FB}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D97912F-6BD6-4E9A-B9A5-1ED6AD6670F7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Test Name</t>
   </si>
@@ -209,13 +209,46 @@
     <t>TP013-Sw-p05-p5-p5-p5</t>
   </si>
   <si>
-    <t>4/18/24, 16:19</t>
-  </si>
-  <si>
-    <t>4/18/24, 16:25</t>
-  </si>
-  <si>
-    <t>4/18/24, 16:28</t>
+    <t>Strain data saved as "FastTestID(+timestamp)"</t>
+  </si>
+  <si>
+    <t>Strain data saved as "TP012"</t>
+  </si>
+  <si>
+    <t>TP 014</t>
+  </si>
+  <si>
+    <t>0.5 - 0.5</t>
+  </si>
+  <si>
+    <t>0.1 - 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strain data saved as TP014. Noticed a small bobble where the platform moved in heave unexpectedly. </t>
+  </si>
+  <si>
+    <t>TP014-Su-p5-p5-p1-1p2</t>
+  </si>
+  <si>
+    <t>TP015-Sw-p5-p5-p1-1p2</t>
+  </si>
+  <si>
+    <t>TP 016</t>
+  </si>
+  <si>
+    <t>TP 015</t>
+  </si>
+  <si>
+    <t>TP016-He-p5-p5-p1-1p2</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP015. Significant Yaw/heave visible at extreme displacements. TP015_1 is the repeat so we could get video of the yawing motion</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP016_1, first had a mistake with lamp settings</t>
   </si>
 </sst>
 </file>
@@ -257,10 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,10 +310,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,29 +609,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="103.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,10 +670,13 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -677,11 +711,11 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -707,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -733,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -759,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -785,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -811,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -837,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -863,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -888,11 +922,11 @@
       <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -917,16 +951,16 @@
       <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
-        <v>57</v>
+      <c r="B12" s="3">
+        <v>45405.48333333333</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -946,13 +980,19 @@
       <c r="K12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>58</v>
+      <c r="B13" s="3">
+        <v>45405.486111111109</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -972,13 +1012,19 @@
       <c r="K13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>59</v>
+      <c r="B14" s="3">
+        <v>45405.488888888889</v>
       </c>
       <c r="C14" t="s">
         <v>56</v>
@@ -997,6 +1043,105 @@
       </c>
       <c r="K14">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45405.511111111111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45405.521527777775</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45405.535416666666</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1006,12 +1151,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,20 +1391,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1282,12 +1430,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D97912F-6BD6-4E9A-B9A5-1ED6AD6670F7}"/>
+  <xr:revisionPtr revIDLastSave="407" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0850FE71-B154-4558-8498-CD1BA325AF74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
   <si>
     <t>Test Name</t>
   </si>
@@ -249,6 +249,27 @@
   </si>
   <si>
     <t>Strain data saved as TP016_1, first had a mistake with lamp settings</t>
+  </si>
+  <si>
+    <t>4/24/24 14:00 Hex Frame Added to LAMP</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP016-2-withHexFrame</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP011-3-withHexFrame, could see a little pitch at higher frequency, did one run at 2:51 but strain data was only 60s of data, reran for 500s</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP012-3-withHexFrame, did one run at 2:56 but strain data was only 60s of data, reran for 500s</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP013-2-withHexFrame, didn’t record strain data for first run</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP014-2-withHexFrame, at the end looked like it was making an oval</t>
+  </si>
+  <si>
+    <t>Strain data saved as TP015-2-withHexFrame, swiggley at high frequencies</t>
   </si>
 </sst>
 </file>
@@ -270,12 +291,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,11 +317,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,30 +637,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="103.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="103.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -715,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -741,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -767,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -793,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -819,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -845,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -871,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -897,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -926,7 +954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -955,7 +983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -987,7 +1015,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1019,7 +1047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1044,8 +1072,11 @@
       <c r="K14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1077,7 +1108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1112,7 +1143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -1142,6 +1173,203 @@
       </c>
       <c r="N17" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45406.626388888886</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45406.629861111112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45406.636111111111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45406.638888888891</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45406.64166666667</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45406.645138888889</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1151,17 +1379,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1390,6 +1607,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1400,17 +1628,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1429,6 +1646,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
   <ds:schemaRefs>

--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0850FE71-B154-4558-8498-CD1BA325AF74}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5DB0F2-C2E6-4801-97C2-205647A7078B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Test Name</t>
   </si>
@@ -218,30 +218,18 @@
     <t>TP 014</t>
   </si>
   <si>
-    <t>0.5 - 0.5</t>
-  </si>
-  <si>
     <t>0.1 - 1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Strain data saved as TP014. Noticed a small bobble where the platform moved in heave unexpectedly. </t>
   </si>
   <si>
-    <t>TP014-Su-p5-p5-p1-1p2</t>
-  </si>
-  <si>
-    <t>TP015-Sw-p5-p5-p1-1p2</t>
-  </si>
-  <si>
     <t>TP 016</t>
   </si>
   <si>
     <t>TP 015</t>
   </si>
   <si>
-    <t>TP016-He-p5-p5-p1-1p2</t>
-  </si>
-  <si>
     <t>Repeats</t>
   </si>
   <si>
@@ -270,6 +258,30 @@
   </si>
   <si>
     <t>Strain data saved as TP015-2-withHexFrame, swiggley at high frequencies</t>
+  </si>
+  <si>
+    <t>TP016-He-p25-p25-p1-1p2</t>
+  </si>
+  <si>
+    <t>TP015-Sw-p25-p25-p1-1p2</t>
+  </si>
+  <si>
+    <t>0.25 - 0.25</t>
+  </si>
+  <si>
+    <t>TP014-Su-p25-p25-p1-1p2</t>
+  </si>
+  <si>
+    <t>RW011-Su-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>RW012-He-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>RW013-Sw-p05-p5-p5-p5</t>
+  </si>
+  <si>
+    <t>RW014-Su-p25-p25-p1-1p2</t>
   </si>
 </sst>
 </file>
@@ -639,28 +651,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="103.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="103.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -743,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -769,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -795,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -821,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -847,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -873,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -899,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -925,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -954,7 +966,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -983,7 +995,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -993,6 +1005,9 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1025,6 +1040,9 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1057,6 +1075,9 @@
       <c r="C14" t="s">
         <v>56</v>
       </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
@@ -1076,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1084,7 +1105,10 @@
         <v>45405.511111111111</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1096,27 +1120,27 @@
         <v>200</v>
       </c>
       <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
         <v>60</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3">
         <v>45405.521527777775</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1128,10 +1152,10 @@
         <v>200</v>
       </c>
       <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
       </c>
       <c r="L16" t="s">
         <v>9</v>
@@ -1140,18 +1164,18 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3">
         <v>45405.535416666666</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1163,24 +1187,24 @@
         <v>200</v>
       </c>
       <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1209,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1241,10 +1265,10 @@
         <v>9</v>
       </c>
       <c r="N20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1273,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="N21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1284,7 +1308,7 @@
         <v>45406.638888888891</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1296,27 +1320,27 @@
         <v>200</v>
       </c>
       <c r="I22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" t="s">
         <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="N22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>45406.64166666667</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1328,27 +1352,27 @@
         <v>200</v>
       </c>
       <c r="I23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
         <v>60</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
       </c>
       <c r="L23" t="s">
         <v>9</v>
       </c>
       <c r="N23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3">
         <v>45406.645138888889</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1360,16 +1384,16 @@
         <v>200</v>
       </c>
       <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
         <v>60</v>
-      </c>
-      <c r="K24" t="s">
-        <v>61</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
       <c r="N24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1379,6 +1403,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1607,27 +1651,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1644,23 +1687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -10,12 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="423" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5DB0F2-C2E6-4801-97C2-205647A7078B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -350,6 +351,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,28 +656,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="103.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="103.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -755,7 +760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -781,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -807,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -833,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -859,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -885,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -911,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -937,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -966,7 +971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1199,12 +1204,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -1403,26 +1408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1651,26 +1636,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,4 +1673,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D5DB0F2-C2E6-4801-97C2-205647A7078B}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2CBC1F-D53A-42F8-AA2E-F3237A2C28C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView minimized="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,9 +209,6 @@
     <t>TP013-Sw-p05-p5-p5-p5</t>
   </si>
   <si>
-    <t>Strain data saved as "FastTestID(+timestamp)"</t>
-  </si>
-  <si>
     <t>Strain data saved as "TP012"</t>
   </si>
   <si>
@@ -283,6 +279,9 @@
   </si>
   <si>
     <t>RW014-Su-p25-p25-p1-1p2</t>
+  </si>
+  <si>
+    <t>Strain data saved as "FastTestID_2024_04_23_11_35_01_1000Hz"</t>
   </si>
 </sst>
 </file>
@@ -351,10 +350,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,15 +651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
@@ -715,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="M1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -1011,7 +1006,7 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1032,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1046,7 +1041,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1067,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="N13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1081,7 +1076,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1104,16 +1099,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="3">
         <v>45405.511111111111</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1125,27 +1120,27 @@
         <v>200</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
       </c>
       <c r="N15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
         <v>45405.521527777775</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1157,10 +1152,10 @@
         <v>200</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
         <v>9</v>
@@ -1169,18 +1164,18 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3">
         <v>45405.535416666666</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1192,21 +1187,21 @@
         <v>200</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -1238,7 +1233,7 @@
         <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -1270,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -1302,18 +1297,18 @@
         <v>9</v>
       </c>
       <c r="N21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="3">
         <v>45406.638888888891</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1325,27 +1320,27 @@
         <v>200</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s">
         <v>9</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3">
         <v>45406.64166666667</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1357,27 +1352,27 @@
         <v>200</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L23" t="s">
         <v>9</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3">
         <v>45406.645138888889</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1389,16 +1384,16 @@
         <v>200</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
         <v>9</v>
       </c>
       <c r="N24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1408,6 +1403,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1636,27 +1651,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1673,23 +1687,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
+++ b/Characterization Data/000 - LAMP Test Documention Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/WaterPowerEquipment/Shared Documents/General/Motion Platform (LAMP)/LAMP Characterization/Stewart-Platform-Characterization/Characterization Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB2CBC1F-D53A-42F8-AA2E-F3237A2C28C1}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="8_{AB6B6391-60CC-44B4-A92C-C59652966A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD4B406-3A14-4121-96D1-E7F9ED486988}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8170" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3025E07D-54D5-42F4-B0F5-6913AE7A2E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>Test Name</t>
   </si>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>Strain data saved as "FastTestID_2024_04_23_11_35_01_1000Hz"</t>
+  </si>
+  <si>
+    <t>TP 017</t>
+  </si>
+  <si>
+    <t>0.05-0.05</t>
+  </si>
+  <si>
+    <t>0.01-1</t>
+  </si>
+  <si>
+    <t>TP017-He-p05-p05-p01-1</t>
   </si>
 </sst>
 </file>
@@ -649,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67016853-0C7E-426B-9622-97C60FA54612}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,6 +1408,29 @@
         <v>67</v>
       </c>
     </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45456.370833333334</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1412,17 +1447,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C131B69D6FB947439E025A8582591DC1" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d72b0a280035b73c975ff1841fa929b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0191a08b-5920-4772-b8b0-08191ed73543" xmlns:ns3="807c36fc-a7d3-4929-b138-82e77cd0b2e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fca6a23d0fed11087865359b966a18e6" ns2:_="" ns3:_="">
     <xsd:import namespace="0191a08b-5920-4772-b8b0-08191ed73543"/>
@@ -1651,6 +1675,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0191a08b-5920-4772-b8b0-08191ed73543" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="807c36fc-a7d3-4929-b138-82e77cd0b2e4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35CEFDE8-B0D8-4192-A802-96CC75201568}">
   <ds:schemaRefs>
@@ -1660,17 +1695,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
-    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB0D1DE1-EA40-40B5-8418-4146C735E787}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1687,4 +1711,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B8D156-148E-409D-B78B-DECF49F33710}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0191a08b-5920-4772-b8b0-08191ed73543"/>
+    <ds:schemaRef ds:uri="807c36fc-a7d3-4929-b138-82e77cd0b2e4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>